--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,7 +88,7 @@
     <t>Pth1r</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.41334290237684</v>
+        <v>0.2756003333333333</v>
       </c>
       <c r="H2">
-        <v>7.41334290237684</v>
+        <v>0.8268009999999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03520863368480177</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03520863368480177</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.968104893426194</v>
+        <v>0.9990806666666666</v>
       </c>
       <c r="N2">
-        <v>0.968104893426194</v>
+        <v>2.997242</v>
       </c>
       <c r="O2">
-        <v>0.1446266147683478</v>
+        <v>0.1356546064507813</v>
       </c>
       <c r="P2">
-        <v>0.1446266147683478</v>
+        <v>0.1356546064507813</v>
       </c>
       <c r="Q2">
-        <v>7.176893540437362</v>
+        <v>0.2753469647602221</v>
       </c>
       <c r="R2">
-        <v>7.176893540437362</v>
+        <v>2.478122682842</v>
       </c>
       <c r="S2">
-        <v>0.1446266147683478</v>
+        <v>0.004776213346181504</v>
       </c>
       <c r="T2">
-        <v>0.1446266147683478</v>
+        <v>0.004776213346181507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.41334290237684</v>
+        <v>0.2756003333333333</v>
       </c>
       <c r="H3">
-        <v>7.41334290237684</v>
+        <v>0.8268009999999999</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.03520863368480177</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.03520863368480177</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.03753647331676</v>
+        <v>4.268092</v>
       </c>
       <c r="N3">
-        <v>4.03753647331676</v>
+        <v>12.804276</v>
       </c>
       <c r="O3">
-        <v>0.6031735157054595</v>
+        <v>0.5795191117925025</v>
       </c>
       <c r="P3">
-        <v>0.6031735157054595</v>
+        <v>0.5795191117925026</v>
       </c>
       <c r="Q3">
-        <v>29.93164235755042</v>
+        <v>1.176287577897333</v>
       </c>
       <c r="R3">
-        <v>29.93164235755042</v>
+        <v>10.586588201076</v>
       </c>
       <c r="S3">
-        <v>0.6031735157054595</v>
+        <v>0.02040407612044391</v>
       </c>
       <c r="T3">
-        <v>0.6031735157054595</v>
+        <v>0.02040407612044391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,371 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.2756003333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.8268009999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.03520863368480177</v>
+      </c>
+      <c r="J4">
+        <v>0.03520863368480177</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.318589</v>
+      </c>
+      <c r="N4">
+        <v>0.955767</v>
+      </c>
+      <c r="O4">
+        <v>0.04325783378307253</v>
+      </c>
+      <c r="P4">
+        <v>0.04325783378307254</v>
+      </c>
+      <c r="Q4">
+        <v>0.08780323459633332</v>
+      </c>
+      <c r="R4">
+        <v>0.7902291113669999</v>
+      </c>
+      <c r="S4">
+        <v>0.001523049223666243</v>
+      </c>
+      <c r="T4">
+        <v>0.001523049223666244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.2756003333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.8268009999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.03520863368480177</v>
+      </c>
+      <c r="J5">
+        <v>0.03520863368480177</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="M5">
+        <v>1.779124</v>
+      </c>
+      <c r="N5">
+        <v>5.337372</v>
+      </c>
+      <c r="O5">
+        <v>0.2415684479736436</v>
+      </c>
+      <c r="P5">
+        <v>0.2415684479736436</v>
+      </c>
+      <c r="Q5">
+        <v>0.4903271674413333</v>
+      </c>
+      <c r="R5">
+        <v>4.412944506972</v>
+      </c>
+      <c r="S5">
+        <v>0.00850529499451011</v>
+      </c>
+      <c r="T5">
+        <v>0.008505294994510113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>7.41334290237684</v>
-      </c>
-      <c r="H4">
-        <v>7.41334290237684</v>
-      </c>
-      <c r="I4">
+      <c r="G6">
+        <v>7.552034666666667</v>
+      </c>
+      <c r="H6">
+        <v>22.656104</v>
+      </c>
+      <c r="I6">
+        <v>0.9647913663151982</v>
+      </c>
+      <c r="J6">
+        <v>0.9647913663151982</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="M6">
+        <v>0.9990806666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.997242</v>
+      </c>
+      <c r="O6">
+        <v>0.1356546064507813</v>
+      </c>
+      <c r="P6">
+        <v>0.1356546064507813</v>
+      </c>
+      <c r="Q6">
+        <v>7.545091829463111</v>
+      </c>
+      <c r="R6">
+        <v>67.90582646516799</v>
+      </c>
+      <c r="S6">
+        <v>0.1308783931045998</v>
+      </c>
+      <c r="T6">
+        <v>0.1308783931045998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="G7">
+        <v>7.552034666666667</v>
+      </c>
+      <c r="H7">
+        <v>22.656104</v>
+      </c>
+      <c r="I7">
+        <v>0.9647913663151982</v>
+      </c>
+      <c r="J7">
+        <v>0.9647913663151982</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="M7">
+        <v>4.268092</v>
+      </c>
+      <c r="N7">
+        <v>12.804276</v>
+      </c>
+      <c r="O7">
+        <v>0.5795191117925025</v>
+      </c>
+      <c r="P7">
+        <v>0.5795191117925026</v>
+      </c>
+      <c r="Q7">
+        <v>32.23277874452267</v>
+      </c>
+      <c r="R7">
+        <v>290.095008700704</v>
+      </c>
+      <c r="S7">
+        <v>0.5591150356720586</v>
+      </c>
+      <c r="T7">
+        <v>0.5591150356720587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>1.68818117053231</v>
-      </c>
-      <c r="N4">
-        <v>1.68818117053231</v>
-      </c>
-      <c r="O4">
-        <v>0.2521998695261927</v>
-      </c>
-      <c r="P4">
-        <v>0.2521998695261927</v>
-      </c>
-      <c r="Q4">
-        <v>12.51506589849193</v>
-      </c>
-      <c r="R4">
-        <v>12.51506589849193</v>
-      </c>
-      <c r="S4">
-        <v>0.2521998695261927</v>
-      </c>
-      <c r="T4">
-        <v>0.2521998695261927</v>
+      <c r="G8">
+        <v>7.552034666666667</v>
+      </c>
+      <c r="H8">
+        <v>22.656104</v>
+      </c>
+      <c r="I8">
+        <v>0.9647913663151982</v>
+      </c>
+      <c r="J8">
+        <v>0.9647913663151982</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.318589</v>
+      </c>
+      <c r="N8">
+        <v>0.955767</v>
+      </c>
+      <c r="O8">
+        <v>0.04325783378307253</v>
+      </c>
+      <c r="P8">
+        <v>0.04325783378307254</v>
+      </c>
+      <c r="Q8">
+        <v>2.405995172418667</v>
+      </c>
+      <c r="R8">
+        <v>21.653956551768</v>
+      </c>
+      <c r="S8">
+        <v>0.04173478455940628</v>
+      </c>
+      <c r="T8">
+        <v>0.0417347845594063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.552034666666667</v>
+      </c>
+      <c r="H9">
+        <v>22.656104</v>
+      </c>
+      <c r="I9">
+        <v>0.9647913663151982</v>
+      </c>
+      <c r="J9">
+        <v>0.9647913663151982</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.779124</v>
+      </c>
+      <c r="N9">
+        <v>5.337372</v>
+      </c>
+      <c r="O9">
+        <v>0.2415684479736436</v>
+      </c>
+      <c r="P9">
+        <v>0.2415684479736436</v>
+      </c>
+      <c r="Q9">
+        <v>13.43600612429867</v>
+      </c>
+      <c r="R9">
+        <v>120.924055118688</v>
+      </c>
+      <c r="S9">
+        <v>0.2330631529791335</v>
+      </c>
+      <c r="T9">
+        <v>0.2330631529791335</v>
       </c>
     </row>
   </sheetData>
